--- a/Assets/06.Table/EventPackageBonus.xlsx
+++ b/Assets/06.Table/EventPackageBonus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFA06B9-3C8B-4AD5-8304-91565C74747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709949B8-2519-432A-B462-764BBF3207B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EventPackageBonus" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -52,14 +52,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1497</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1498</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>9039</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -68,7 +60,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>9063</t>
+    <t>1530</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9055</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -169,9 +165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -209,7 +205,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -315,7 +311,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,7 +465,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,195 +473,195 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="258" max="258" width="21" customWidth="1"/>
-    <col min="259" max="259" width="20.5" customWidth="1"/>
-    <col min="260" max="260" width="18.25" customWidth="1"/>
-    <col min="514" max="514" width="21" customWidth="1"/>
-    <col min="515" max="515" width="20.5" customWidth="1"/>
-    <col min="516" max="516" width="18.25" customWidth="1"/>
-    <col min="770" max="770" width="21" customWidth="1"/>
-    <col min="771" max="771" width="20.5" customWidth="1"/>
-    <col min="772" max="772" width="18.25" customWidth="1"/>
-    <col min="1026" max="1026" width="21" customWidth="1"/>
-    <col min="1027" max="1027" width="20.5" customWidth="1"/>
-    <col min="1028" max="1028" width="18.25" customWidth="1"/>
-    <col min="1282" max="1282" width="21" customWidth="1"/>
-    <col min="1283" max="1283" width="20.5" customWidth="1"/>
-    <col min="1284" max="1284" width="18.25" customWidth="1"/>
-    <col min="1538" max="1538" width="21" customWidth="1"/>
-    <col min="1539" max="1539" width="20.5" customWidth="1"/>
-    <col min="1540" max="1540" width="18.25" customWidth="1"/>
-    <col min="1794" max="1794" width="21" customWidth="1"/>
-    <col min="1795" max="1795" width="20.5" customWidth="1"/>
-    <col min="1796" max="1796" width="18.25" customWidth="1"/>
-    <col min="2050" max="2050" width="21" customWidth="1"/>
-    <col min="2051" max="2051" width="20.5" customWidth="1"/>
-    <col min="2052" max="2052" width="18.25" customWidth="1"/>
-    <col min="2306" max="2306" width="21" customWidth="1"/>
-    <col min="2307" max="2307" width="20.5" customWidth="1"/>
-    <col min="2308" max="2308" width="18.25" customWidth="1"/>
-    <col min="2562" max="2562" width="21" customWidth="1"/>
-    <col min="2563" max="2563" width="20.5" customWidth="1"/>
-    <col min="2564" max="2564" width="18.25" customWidth="1"/>
-    <col min="2818" max="2818" width="21" customWidth="1"/>
-    <col min="2819" max="2819" width="20.5" customWidth="1"/>
-    <col min="2820" max="2820" width="18.25" customWidth="1"/>
-    <col min="3074" max="3074" width="21" customWidth="1"/>
-    <col min="3075" max="3075" width="20.5" customWidth="1"/>
-    <col min="3076" max="3076" width="18.25" customWidth="1"/>
-    <col min="3330" max="3330" width="21" customWidth="1"/>
-    <col min="3331" max="3331" width="20.5" customWidth="1"/>
-    <col min="3332" max="3332" width="18.25" customWidth="1"/>
-    <col min="3586" max="3586" width="21" customWidth="1"/>
-    <col min="3587" max="3587" width="20.5" customWidth="1"/>
-    <col min="3588" max="3588" width="18.25" customWidth="1"/>
-    <col min="3842" max="3842" width="21" customWidth="1"/>
-    <col min="3843" max="3843" width="20.5" customWidth="1"/>
-    <col min="3844" max="3844" width="18.25" customWidth="1"/>
-    <col min="4098" max="4098" width="21" customWidth="1"/>
-    <col min="4099" max="4099" width="20.5" customWidth="1"/>
-    <col min="4100" max="4100" width="18.25" customWidth="1"/>
-    <col min="4354" max="4354" width="21" customWidth="1"/>
-    <col min="4355" max="4355" width="20.5" customWidth="1"/>
-    <col min="4356" max="4356" width="18.25" customWidth="1"/>
-    <col min="4610" max="4610" width="21" customWidth="1"/>
-    <col min="4611" max="4611" width="20.5" customWidth="1"/>
-    <col min="4612" max="4612" width="18.25" customWidth="1"/>
-    <col min="4866" max="4866" width="21" customWidth="1"/>
-    <col min="4867" max="4867" width="20.5" customWidth="1"/>
-    <col min="4868" max="4868" width="18.25" customWidth="1"/>
-    <col min="5122" max="5122" width="21" customWidth="1"/>
-    <col min="5123" max="5123" width="20.5" customWidth="1"/>
-    <col min="5124" max="5124" width="18.25" customWidth="1"/>
-    <col min="5378" max="5378" width="21" customWidth="1"/>
-    <col min="5379" max="5379" width="20.5" customWidth="1"/>
-    <col min="5380" max="5380" width="18.25" customWidth="1"/>
-    <col min="5634" max="5634" width="21" customWidth="1"/>
-    <col min="5635" max="5635" width="20.5" customWidth="1"/>
-    <col min="5636" max="5636" width="18.25" customWidth="1"/>
-    <col min="5890" max="5890" width="21" customWidth="1"/>
-    <col min="5891" max="5891" width="20.5" customWidth="1"/>
-    <col min="5892" max="5892" width="18.25" customWidth="1"/>
-    <col min="6146" max="6146" width="21" customWidth="1"/>
-    <col min="6147" max="6147" width="20.5" customWidth="1"/>
-    <col min="6148" max="6148" width="18.25" customWidth="1"/>
-    <col min="6402" max="6402" width="21" customWidth="1"/>
-    <col min="6403" max="6403" width="20.5" customWidth="1"/>
-    <col min="6404" max="6404" width="18.25" customWidth="1"/>
-    <col min="6658" max="6658" width="21" customWidth="1"/>
-    <col min="6659" max="6659" width="20.5" customWidth="1"/>
-    <col min="6660" max="6660" width="18.25" customWidth="1"/>
-    <col min="6914" max="6914" width="21" customWidth="1"/>
-    <col min="6915" max="6915" width="20.5" customWidth="1"/>
-    <col min="6916" max="6916" width="18.25" customWidth="1"/>
-    <col min="7170" max="7170" width="21" customWidth="1"/>
-    <col min="7171" max="7171" width="20.5" customWidth="1"/>
-    <col min="7172" max="7172" width="18.25" customWidth="1"/>
-    <col min="7426" max="7426" width="21" customWidth="1"/>
-    <col min="7427" max="7427" width="20.5" customWidth="1"/>
-    <col min="7428" max="7428" width="18.25" customWidth="1"/>
-    <col min="7682" max="7682" width="21" customWidth="1"/>
-    <col min="7683" max="7683" width="20.5" customWidth="1"/>
-    <col min="7684" max="7684" width="18.25" customWidth="1"/>
-    <col min="7938" max="7938" width="21" customWidth="1"/>
-    <col min="7939" max="7939" width="20.5" customWidth="1"/>
-    <col min="7940" max="7940" width="18.25" customWidth="1"/>
-    <col min="8194" max="8194" width="21" customWidth="1"/>
-    <col min="8195" max="8195" width="20.5" customWidth="1"/>
-    <col min="8196" max="8196" width="18.25" customWidth="1"/>
-    <col min="8450" max="8450" width="21" customWidth="1"/>
-    <col min="8451" max="8451" width="20.5" customWidth="1"/>
-    <col min="8452" max="8452" width="18.25" customWidth="1"/>
-    <col min="8706" max="8706" width="21" customWidth="1"/>
-    <col min="8707" max="8707" width="20.5" customWidth="1"/>
-    <col min="8708" max="8708" width="18.25" customWidth="1"/>
-    <col min="8962" max="8962" width="21" customWidth="1"/>
-    <col min="8963" max="8963" width="20.5" customWidth="1"/>
-    <col min="8964" max="8964" width="18.25" customWidth="1"/>
-    <col min="9218" max="9218" width="21" customWidth="1"/>
-    <col min="9219" max="9219" width="20.5" customWidth="1"/>
-    <col min="9220" max="9220" width="18.25" customWidth="1"/>
-    <col min="9474" max="9474" width="21" customWidth="1"/>
-    <col min="9475" max="9475" width="20.5" customWidth="1"/>
-    <col min="9476" max="9476" width="18.25" customWidth="1"/>
-    <col min="9730" max="9730" width="21" customWidth="1"/>
-    <col min="9731" max="9731" width="20.5" customWidth="1"/>
-    <col min="9732" max="9732" width="18.25" customWidth="1"/>
-    <col min="9986" max="9986" width="21" customWidth="1"/>
-    <col min="9987" max="9987" width="20.5" customWidth="1"/>
-    <col min="9988" max="9988" width="18.25" customWidth="1"/>
-    <col min="10242" max="10242" width="21" customWidth="1"/>
-    <col min="10243" max="10243" width="20.5" customWidth="1"/>
-    <col min="10244" max="10244" width="18.25" customWidth="1"/>
-    <col min="10498" max="10498" width="21" customWidth="1"/>
-    <col min="10499" max="10499" width="20.5" customWidth="1"/>
-    <col min="10500" max="10500" width="18.25" customWidth="1"/>
-    <col min="10754" max="10754" width="21" customWidth="1"/>
-    <col min="10755" max="10755" width="20.5" customWidth="1"/>
-    <col min="10756" max="10756" width="18.25" customWidth="1"/>
-    <col min="11010" max="11010" width="21" customWidth="1"/>
-    <col min="11011" max="11011" width="20.5" customWidth="1"/>
-    <col min="11012" max="11012" width="18.25" customWidth="1"/>
-    <col min="11266" max="11266" width="21" customWidth="1"/>
-    <col min="11267" max="11267" width="20.5" customWidth="1"/>
-    <col min="11268" max="11268" width="18.25" customWidth="1"/>
-    <col min="11522" max="11522" width="21" customWidth="1"/>
-    <col min="11523" max="11523" width="20.5" customWidth="1"/>
-    <col min="11524" max="11524" width="18.25" customWidth="1"/>
-    <col min="11778" max="11778" width="21" customWidth="1"/>
-    <col min="11779" max="11779" width="20.5" customWidth="1"/>
-    <col min="11780" max="11780" width="18.25" customWidth="1"/>
-    <col min="12034" max="12034" width="21" customWidth="1"/>
-    <col min="12035" max="12035" width="20.5" customWidth="1"/>
-    <col min="12036" max="12036" width="18.25" customWidth="1"/>
-    <col min="12290" max="12290" width="21" customWidth="1"/>
-    <col min="12291" max="12291" width="20.5" customWidth="1"/>
-    <col min="12292" max="12292" width="18.25" customWidth="1"/>
-    <col min="12546" max="12546" width="21" customWidth="1"/>
-    <col min="12547" max="12547" width="20.5" customWidth="1"/>
-    <col min="12548" max="12548" width="18.25" customWidth="1"/>
-    <col min="12802" max="12802" width="21" customWidth="1"/>
-    <col min="12803" max="12803" width="20.5" customWidth="1"/>
-    <col min="12804" max="12804" width="18.25" customWidth="1"/>
-    <col min="13058" max="13058" width="21" customWidth="1"/>
-    <col min="13059" max="13059" width="20.5" customWidth="1"/>
-    <col min="13060" max="13060" width="18.25" customWidth="1"/>
-    <col min="13314" max="13314" width="21" customWidth="1"/>
-    <col min="13315" max="13315" width="20.5" customWidth="1"/>
-    <col min="13316" max="13316" width="18.25" customWidth="1"/>
-    <col min="13570" max="13570" width="21" customWidth="1"/>
-    <col min="13571" max="13571" width="20.5" customWidth="1"/>
-    <col min="13572" max="13572" width="18.25" customWidth="1"/>
-    <col min="13826" max="13826" width="21" customWidth="1"/>
-    <col min="13827" max="13827" width="20.5" customWidth="1"/>
-    <col min="13828" max="13828" width="18.25" customWidth="1"/>
-    <col min="14082" max="14082" width="21" customWidth="1"/>
-    <col min="14083" max="14083" width="20.5" customWidth="1"/>
-    <col min="14084" max="14084" width="18.25" customWidth="1"/>
-    <col min="14338" max="14338" width="21" customWidth="1"/>
-    <col min="14339" max="14339" width="20.5" customWidth="1"/>
-    <col min="14340" max="14340" width="18.25" customWidth="1"/>
-    <col min="14594" max="14594" width="21" customWidth="1"/>
-    <col min="14595" max="14595" width="20.5" customWidth="1"/>
-    <col min="14596" max="14596" width="18.25" customWidth="1"/>
-    <col min="14850" max="14850" width="21" customWidth="1"/>
-    <col min="14851" max="14851" width="20.5" customWidth="1"/>
-    <col min="14852" max="14852" width="18.25" customWidth="1"/>
-    <col min="15106" max="15106" width="21" customWidth="1"/>
-    <col min="15107" max="15107" width="20.5" customWidth="1"/>
-    <col min="15108" max="15108" width="18.25" customWidth="1"/>
-    <col min="15362" max="15362" width="21" customWidth="1"/>
-    <col min="15363" max="15363" width="20.5" customWidth="1"/>
-    <col min="15364" max="15364" width="18.25" customWidth="1"/>
-    <col min="15618" max="15618" width="21" customWidth="1"/>
-    <col min="15619" max="15619" width="20.5" customWidth="1"/>
-    <col min="15620" max="15620" width="18.25" customWidth="1"/>
-    <col min="15874" max="15874" width="21" customWidth="1"/>
-    <col min="15875" max="15875" width="20.5" customWidth="1"/>
-    <col min="15876" max="15876" width="18.25" customWidth="1"/>
-    <col min="16130" max="16130" width="21" customWidth="1"/>
-    <col min="16131" max="16131" width="20.5" customWidth="1"/>
-    <col min="16132" max="16132" width="18.25" customWidth="1"/>
+    <col min="257" max="257" width="21" customWidth="1"/>
+    <col min="258" max="258" width="20.5" customWidth="1"/>
+    <col min="259" max="259" width="18.25" customWidth="1"/>
+    <col min="513" max="513" width="21" customWidth="1"/>
+    <col min="514" max="514" width="20.5" customWidth="1"/>
+    <col min="515" max="515" width="18.25" customWidth="1"/>
+    <col min="769" max="769" width="21" customWidth="1"/>
+    <col min="770" max="770" width="20.5" customWidth="1"/>
+    <col min="771" max="771" width="18.25" customWidth="1"/>
+    <col min="1025" max="1025" width="21" customWidth="1"/>
+    <col min="1026" max="1026" width="20.5" customWidth="1"/>
+    <col min="1027" max="1027" width="18.25" customWidth="1"/>
+    <col min="1281" max="1281" width="21" customWidth="1"/>
+    <col min="1282" max="1282" width="20.5" customWidth="1"/>
+    <col min="1283" max="1283" width="18.25" customWidth="1"/>
+    <col min="1537" max="1537" width="21" customWidth="1"/>
+    <col min="1538" max="1538" width="20.5" customWidth="1"/>
+    <col min="1539" max="1539" width="18.25" customWidth="1"/>
+    <col min="1793" max="1793" width="21" customWidth="1"/>
+    <col min="1794" max="1794" width="20.5" customWidth="1"/>
+    <col min="1795" max="1795" width="18.25" customWidth="1"/>
+    <col min="2049" max="2049" width="21" customWidth="1"/>
+    <col min="2050" max="2050" width="20.5" customWidth="1"/>
+    <col min="2051" max="2051" width="18.25" customWidth="1"/>
+    <col min="2305" max="2305" width="21" customWidth="1"/>
+    <col min="2306" max="2306" width="20.5" customWidth="1"/>
+    <col min="2307" max="2307" width="18.25" customWidth="1"/>
+    <col min="2561" max="2561" width="21" customWidth="1"/>
+    <col min="2562" max="2562" width="20.5" customWidth="1"/>
+    <col min="2563" max="2563" width="18.25" customWidth="1"/>
+    <col min="2817" max="2817" width="21" customWidth="1"/>
+    <col min="2818" max="2818" width="20.5" customWidth="1"/>
+    <col min="2819" max="2819" width="18.25" customWidth="1"/>
+    <col min="3073" max="3073" width="21" customWidth="1"/>
+    <col min="3074" max="3074" width="20.5" customWidth="1"/>
+    <col min="3075" max="3075" width="18.25" customWidth="1"/>
+    <col min="3329" max="3329" width="21" customWidth="1"/>
+    <col min="3330" max="3330" width="20.5" customWidth="1"/>
+    <col min="3331" max="3331" width="18.25" customWidth="1"/>
+    <col min="3585" max="3585" width="21" customWidth="1"/>
+    <col min="3586" max="3586" width="20.5" customWidth="1"/>
+    <col min="3587" max="3587" width="18.25" customWidth="1"/>
+    <col min="3841" max="3841" width="21" customWidth="1"/>
+    <col min="3842" max="3842" width="20.5" customWidth="1"/>
+    <col min="3843" max="3843" width="18.25" customWidth="1"/>
+    <col min="4097" max="4097" width="21" customWidth="1"/>
+    <col min="4098" max="4098" width="20.5" customWidth="1"/>
+    <col min="4099" max="4099" width="18.25" customWidth="1"/>
+    <col min="4353" max="4353" width="21" customWidth="1"/>
+    <col min="4354" max="4354" width="20.5" customWidth="1"/>
+    <col min="4355" max="4355" width="18.25" customWidth="1"/>
+    <col min="4609" max="4609" width="21" customWidth="1"/>
+    <col min="4610" max="4610" width="20.5" customWidth="1"/>
+    <col min="4611" max="4611" width="18.25" customWidth="1"/>
+    <col min="4865" max="4865" width="21" customWidth="1"/>
+    <col min="4866" max="4866" width="20.5" customWidth="1"/>
+    <col min="4867" max="4867" width="18.25" customWidth="1"/>
+    <col min="5121" max="5121" width="21" customWidth="1"/>
+    <col min="5122" max="5122" width="20.5" customWidth="1"/>
+    <col min="5123" max="5123" width="18.25" customWidth="1"/>
+    <col min="5377" max="5377" width="21" customWidth="1"/>
+    <col min="5378" max="5378" width="20.5" customWidth="1"/>
+    <col min="5379" max="5379" width="18.25" customWidth="1"/>
+    <col min="5633" max="5633" width="21" customWidth="1"/>
+    <col min="5634" max="5634" width="20.5" customWidth="1"/>
+    <col min="5635" max="5635" width="18.25" customWidth="1"/>
+    <col min="5889" max="5889" width="21" customWidth="1"/>
+    <col min="5890" max="5890" width="20.5" customWidth="1"/>
+    <col min="5891" max="5891" width="18.25" customWidth="1"/>
+    <col min="6145" max="6145" width="21" customWidth="1"/>
+    <col min="6146" max="6146" width="20.5" customWidth="1"/>
+    <col min="6147" max="6147" width="18.25" customWidth="1"/>
+    <col min="6401" max="6401" width="21" customWidth="1"/>
+    <col min="6402" max="6402" width="20.5" customWidth="1"/>
+    <col min="6403" max="6403" width="18.25" customWidth="1"/>
+    <col min="6657" max="6657" width="21" customWidth="1"/>
+    <col min="6658" max="6658" width="20.5" customWidth="1"/>
+    <col min="6659" max="6659" width="18.25" customWidth="1"/>
+    <col min="6913" max="6913" width="21" customWidth="1"/>
+    <col min="6914" max="6914" width="20.5" customWidth="1"/>
+    <col min="6915" max="6915" width="18.25" customWidth="1"/>
+    <col min="7169" max="7169" width="21" customWidth="1"/>
+    <col min="7170" max="7170" width="20.5" customWidth="1"/>
+    <col min="7171" max="7171" width="18.25" customWidth="1"/>
+    <col min="7425" max="7425" width="21" customWidth="1"/>
+    <col min="7426" max="7426" width="20.5" customWidth="1"/>
+    <col min="7427" max="7427" width="18.25" customWidth="1"/>
+    <col min="7681" max="7681" width="21" customWidth="1"/>
+    <col min="7682" max="7682" width="20.5" customWidth="1"/>
+    <col min="7683" max="7683" width="18.25" customWidth="1"/>
+    <col min="7937" max="7937" width="21" customWidth="1"/>
+    <col min="7938" max="7938" width="20.5" customWidth="1"/>
+    <col min="7939" max="7939" width="18.25" customWidth="1"/>
+    <col min="8193" max="8193" width="21" customWidth="1"/>
+    <col min="8194" max="8194" width="20.5" customWidth="1"/>
+    <col min="8195" max="8195" width="18.25" customWidth="1"/>
+    <col min="8449" max="8449" width="21" customWidth="1"/>
+    <col min="8450" max="8450" width="20.5" customWidth="1"/>
+    <col min="8451" max="8451" width="18.25" customWidth="1"/>
+    <col min="8705" max="8705" width="21" customWidth="1"/>
+    <col min="8706" max="8706" width="20.5" customWidth="1"/>
+    <col min="8707" max="8707" width="18.25" customWidth="1"/>
+    <col min="8961" max="8961" width="21" customWidth="1"/>
+    <col min="8962" max="8962" width="20.5" customWidth="1"/>
+    <col min="8963" max="8963" width="18.25" customWidth="1"/>
+    <col min="9217" max="9217" width="21" customWidth="1"/>
+    <col min="9218" max="9218" width="20.5" customWidth="1"/>
+    <col min="9219" max="9219" width="18.25" customWidth="1"/>
+    <col min="9473" max="9473" width="21" customWidth="1"/>
+    <col min="9474" max="9474" width="20.5" customWidth="1"/>
+    <col min="9475" max="9475" width="18.25" customWidth="1"/>
+    <col min="9729" max="9729" width="21" customWidth="1"/>
+    <col min="9730" max="9730" width="20.5" customWidth="1"/>
+    <col min="9731" max="9731" width="18.25" customWidth="1"/>
+    <col min="9985" max="9985" width="21" customWidth="1"/>
+    <col min="9986" max="9986" width="20.5" customWidth="1"/>
+    <col min="9987" max="9987" width="18.25" customWidth="1"/>
+    <col min="10241" max="10241" width="21" customWidth="1"/>
+    <col min="10242" max="10242" width="20.5" customWidth="1"/>
+    <col min="10243" max="10243" width="18.25" customWidth="1"/>
+    <col min="10497" max="10497" width="21" customWidth="1"/>
+    <col min="10498" max="10498" width="20.5" customWidth="1"/>
+    <col min="10499" max="10499" width="18.25" customWidth="1"/>
+    <col min="10753" max="10753" width="21" customWidth="1"/>
+    <col min="10754" max="10754" width="20.5" customWidth="1"/>
+    <col min="10755" max="10755" width="18.25" customWidth="1"/>
+    <col min="11009" max="11009" width="21" customWidth="1"/>
+    <col min="11010" max="11010" width="20.5" customWidth="1"/>
+    <col min="11011" max="11011" width="18.25" customWidth="1"/>
+    <col min="11265" max="11265" width="21" customWidth="1"/>
+    <col min="11266" max="11266" width="20.5" customWidth="1"/>
+    <col min="11267" max="11267" width="18.25" customWidth="1"/>
+    <col min="11521" max="11521" width="21" customWidth="1"/>
+    <col min="11522" max="11522" width="20.5" customWidth="1"/>
+    <col min="11523" max="11523" width="18.25" customWidth="1"/>
+    <col min="11777" max="11777" width="21" customWidth="1"/>
+    <col min="11778" max="11778" width="20.5" customWidth="1"/>
+    <col min="11779" max="11779" width="18.25" customWidth="1"/>
+    <col min="12033" max="12033" width="21" customWidth="1"/>
+    <col min="12034" max="12034" width="20.5" customWidth="1"/>
+    <col min="12035" max="12035" width="18.25" customWidth="1"/>
+    <col min="12289" max="12289" width="21" customWidth="1"/>
+    <col min="12290" max="12290" width="20.5" customWidth="1"/>
+    <col min="12291" max="12291" width="18.25" customWidth="1"/>
+    <col min="12545" max="12545" width="21" customWidth="1"/>
+    <col min="12546" max="12546" width="20.5" customWidth="1"/>
+    <col min="12547" max="12547" width="18.25" customWidth="1"/>
+    <col min="12801" max="12801" width="21" customWidth="1"/>
+    <col min="12802" max="12802" width="20.5" customWidth="1"/>
+    <col min="12803" max="12803" width="18.25" customWidth="1"/>
+    <col min="13057" max="13057" width="21" customWidth="1"/>
+    <col min="13058" max="13058" width="20.5" customWidth="1"/>
+    <col min="13059" max="13059" width="18.25" customWidth="1"/>
+    <col min="13313" max="13313" width="21" customWidth="1"/>
+    <col min="13314" max="13314" width="20.5" customWidth="1"/>
+    <col min="13315" max="13315" width="18.25" customWidth="1"/>
+    <col min="13569" max="13569" width="21" customWidth="1"/>
+    <col min="13570" max="13570" width="20.5" customWidth="1"/>
+    <col min="13571" max="13571" width="18.25" customWidth="1"/>
+    <col min="13825" max="13825" width="21" customWidth="1"/>
+    <col min="13826" max="13826" width="20.5" customWidth="1"/>
+    <col min="13827" max="13827" width="18.25" customWidth="1"/>
+    <col min="14081" max="14081" width="21" customWidth="1"/>
+    <col min="14082" max="14082" width="20.5" customWidth="1"/>
+    <col min="14083" max="14083" width="18.25" customWidth="1"/>
+    <col min="14337" max="14337" width="21" customWidth="1"/>
+    <col min="14338" max="14338" width="20.5" customWidth="1"/>
+    <col min="14339" max="14339" width="18.25" customWidth="1"/>
+    <col min="14593" max="14593" width="21" customWidth="1"/>
+    <col min="14594" max="14594" width="20.5" customWidth="1"/>
+    <col min="14595" max="14595" width="18.25" customWidth="1"/>
+    <col min="14849" max="14849" width="21" customWidth="1"/>
+    <col min="14850" max="14850" width="20.5" customWidth="1"/>
+    <col min="14851" max="14851" width="18.25" customWidth="1"/>
+    <col min="15105" max="15105" width="21" customWidth="1"/>
+    <col min="15106" max="15106" width="20.5" customWidth="1"/>
+    <col min="15107" max="15107" width="18.25" customWidth="1"/>
+    <col min="15361" max="15361" width="21" customWidth="1"/>
+    <col min="15362" max="15362" width="20.5" customWidth="1"/>
+    <col min="15363" max="15363" width="18.25" customWidth="1"/>
+    <col min="15617" max="15617" width="21" customWidth="1"/>
+    <col min="15618" max="15618" width="20.5" customWidth="1"/>
+    <col min="15619" max="15619" width="18.25" customWidth="1"/>
+    <col min="15873" max="15873" width="21" customWidth="1"/>
+    <col min="15874" max="15874" width="20.5" customWidth="1"/>
+    <col min="15875" max="15875" width="18.25" customWidth="1"/>
+    <col min="16129" max="16129" width="21" customWidth="1"/>
+    <col min="16130" max="16130" width="20.5" customWidth="1"/>
+    <col min="16131" max="16131" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -693,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -704,10 +700,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -718,10 +714,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -732,10 +728,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -746,10 +742,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EventPackageBonus.xlsx
+++ b/Assets/06.Table/EventPackageBonus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709949B8-2519-432A-B462-764BBF3207B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55969AC4-4E95-4CBA-90DC-60D8B814E12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EventPackageBonus" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -56,15 +56,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>9053</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>9068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1530</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9055</t>
+    <t>1549</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +461,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -686,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3">
         <v>50</v>
@@ -700,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3">
         <v>50</v>
@@ -731,7 +727,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
